--- a/Proyectos.xlsx
+++ b/Proyectos.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Escritorio\portafolioWebDBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A3931F-6E87-4D70-B170-C74CEA6A93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5306F2-9D63-4FCB-B71B-44F785D9AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3CEC63B2-35B4-4505-9AB1-F88FDF9B1F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3CEC63B2-35B4-4505-9AB1-F88FDF9B1F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos Portafolio" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proyectos Portafolio'!$B$3:$K$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proyectos Portafolio'!$B$3:$K$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="292">
   <si>
     <t>No</t>
   </si>
@@ -68,9 +69,6 @@
     <t>presentacion</t>
   </si>
   <si>
-    <t>Nuevo Elementos</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
@@ -86,9 +84,6 @@
     <t>HTML/CSS</t>
   </si>
   <si>
-    <t xml:space="preserve">Ejercicio3_JScript </t>
-  </si>
-  <si>
     <t>HTML/JS</t>
   </si>
   <si>
@@ -98,36 +93,6 @@
     <t>Formularios</t>
   </si>
   <si>
-    <t>Canvas</t>
-  </si>
-  <si>
-    <t>Drag_Drop</t>
-  </si>
-  <si>
-    <t>Geolocalicion</t>
-  </si>
-  <si>
-    <t>Web_Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndexedDb </t>
-  </si>
-  <si>
-    <t>ApiFile</t>
-  </si>
-  <si>
-    <t>Comunication</t>
-  </si>
-  <si>
-    <t>Worker</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
     <t>EjercicioGuiadoI</t>
   </si>
   <si>
@@ -443,9 +408,6 @@
     <t>Spring Rest</t>
   </si>
   <si>
-    <t>Instalacione introduccion</t>
-  </si>
-  <si>
     <t>Spring Boot</t>
   </si>
   <si>
@@ -566,45 +528,21 @@
     <t>Diagramas de actividades</t>
   </si>
   <si>
-    <t>trabajando con lambdas, streams y Spring Framework</t>
-  </si>
-  <si>
     <t>Java y Spring Boot</t>
   </si>
   <si>
     <t>Alura Latam</t>
   </si>
   <si>
-    <t>persistencia de datos y consultas con Spring Data JPA</t>
-  </si>
-  <si>
-    <t>creando tu primera API y conectándola al Front End</t>
-  </si>
-  <si>
-    <t>Spring Boot 3: desarrollar una API Rest en Java</t>
-  </si>
-  <si>
-    <t>Spring Boot 3: aplique las mejores prácticas y proteja una API Rest</t>
-  </si>
-  <si>
-    <t>Spring Boot 3: Documentar, probar y preparar una API para su implementación</t>
-  </si>
-  <si>
     <t>Challenge Literalura</t>
   </si>
   <si>
     <t>Challenge Foro Hub</t>
   </si>
   <si>
-    <t xml:space="preserve">Lógica de programación: sumérgete en la programación con JavaScript </t>
-  </si>
-  <si>
     <t>Principiante en Programación</t>
   </si>
   <si>
-    <t xml:space="preserve">Lógica de programación: explorar funciones y listas </t>
-  </si>
-  <si>
     <t>HTML5 y CSS3 parte 1: Mi primera página web</t>
   </si>
   <si>
@@ -620,51 +558,27 @@
     <t xml:space="preserve">HTML5 y CSS3 parte 4: Avanzando en CSS </t>
   </si>
   <si>
-    <t xml:space="preserve">Git y GitHub: repositorio, commit y versiones </t>
-  </si>
-  <si>
-    <t>sumérgete en la programación con JavaScript</t>
-  </si>
-  <si>
     <t>Lógica de programación con JavaScrip</t>
   </si>
   <si>
-    <t>explorar funciones y listas</t>
-  </si>
-  <si>
     <t>Git y GitHub: repositorio, commit y versiones</t>
   </si>
   <si>
-    <t>Java Web: crea aplicaciones utilizando Spring Boot</t>
-  </si>
-  <si>
-    <t>creando tu primera aplicación</t>
-  </si>
-  <si>
     <t>Java Orientado a Objetos</t>
   </si>
   <si>
-    <t>plicando la Orientación a Objetos</t>
-  </si>
-  <si>
     <t>Challenge Conversor de Monedas</t>
   </si>
   <si>
     <t>Trabajar con listas y colecciones de datos</t>
   </si>
   <si>
-    <t>consumir API, escribir archivos y manejar errores</t>
-  </si>
-  <si>
     <t>Creando tu primera aplicación</t>
   </si>
   <si>
     <t>Aprende a programar en Java con Orientación a Objetos</t>
   </si>
   <si>
-    <t>aplicando la Orientación a Objetos</t>
-  </si>
-  <si>
     <t>Introducción a SQL con MySQL: Manipule y consulte datos</t>
   </si>
   <si>
@@ -692,21 +606,12 @@
     <t>Administración de MySQL: Seguridad y optimización de la base de datos - Parte 2</t>
   </si>
   <si>
-    <t>ChatGPT: optimizando la calidad de los resultados</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
     <t>ChatGPT</t>
   </si>
   <si>
-    <t>ChatGPT y JavaScript: construyendo el juego Pong</t>
-  </si>
-  <si>
-    <t>ChatGPT y programación: aumenta tu productividad</t>
-  </si>
-  <si>
     <t>Oracle Cloud Infrastructure: implementación de una aplicación en la nube</t>
   </si>
   <si>
@@ -798,6 +703,219 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Ejercicio-5/blob/master/index.html</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Drag_Drop</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Geolocalicion</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Ejercicio-6/blob/main/prueba_for.html</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Web_Storage</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/IndexedDb</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ApiFile</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Comunication</t>
+  </si>
+  <si>
+    <t>Conceptos basicos y novedades</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Ejercicio3_JScript</t>
+  </si>
+  <si>
+    <t>API Canvas</t>
+  </si>
+  <si>
+    <t>API Drag &amp; Drop</t>
+  </si>
+  <si>
+    <t>API Geolocalicion</t>
+  </si>
+  <si>
+    <t>API Web Storage</t>
+  </si>
+  <si>
+    <t>API IndexedDb</t>
+  </si>
+  <si>
+    <t>API File</t>
+  </si>
+  <si>
+    <t>API Comunication</t>
+  </si>
+  <si>
+    <t>API Worker</t>
+  </si>
+  <si>
+    <t>API History</t>
+  </si>
+  <si>
+    <t>API Offline</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Ejercicio-Video25</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Html\Api History</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/JavaScript</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Ccs</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Java_Pildoras</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Java_spring_pildoras</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\SpringBoot_Pildoras</t>
+  </si>
+  <si>
+    <t>Trabajando con lambdas, streams y Spring Framework</t>
+  </si>
+  <si>
+    <t>Sumérgete en la programación con JavaScript</t>
+  </si>
+  <si>
+    <t>Explorar funciones y listas</t>
+  </si>
+  <si>
+    <t>Aplicando la Orientación a Objetos</t>
+  </si>
+  <si>
+    <t>Aplique las mejores prácticas y proteja una API Rest</t>
+  </si>
+  <si>
+    <t>Desarrollar una API Rest en Java</t>
+  </si>
+  <si>
+    <t>Consumir API, escribir archivos y manejar errores</t>
+  </si>
+  <si>
+    <t>Persistencia de datos y consultas con Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Creando tu primera API y conectándola al Front End</t>
+  </si>
+  <si>
+    <t>Documentar, probar y preparar una API para su implementación</t>
+  </si>
+  <si>
+    <t>SIN ARCHIVOS</t>
+  </si>
+  <si>
+    <t>POR EMPEZAR</t>
+  </si>
+  <si>
+    <t>Optimizando la calidad de los resultados</t>
+  </si>
+  <si>
+    <t>JavaScript: construyendo el juego Pong</t>
+  </si>
+  <si>
+    <t>Programación: aumenta tu productividad</t>
+  </si>
+  <si>
+    <t>Instalacion e introduccion</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/01_Logica_Programacion_Sumegerte_js/Ejercicio1</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/02_Logic_Programacion_Fucniones_Listas/Ejercicio</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/03_Html_Css_part1/Ejercicio</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/03_Html_Css_part2/Ejercicio</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/05_Html_Css_part3/Ejercicio</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/06_Html_Css_part4/Ejercicio</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/ONE-ORACLE_ALURA/tree/main/Principiante_Programacion/07_Git_Github</t>
+  </si>
+  <si>
+    <t>Encriptar</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/001_Encriptar</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Java_lambdas_streams_Spring Framework_ONEALURA</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\ChatGPT</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\MYSQL</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\git\Proyecto Empresa B</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\ONE ORACLE_ALURA\Java Orientado a Objetos</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/EjercicioGuiadoI</t>
+  </si>
+  <si>
+    <t>https://github.com/davidber0102/Html</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Html\Ejercicio 1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>C:\David\Cursos_dpttoCarto\Html\Ejercicio 4</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>gasto</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>mes</t>
   </si>
 </sst>
 </file>
@@ -845,19 +963,30 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1187,30 +1316,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F3C031-B42B-4B1B-A8F5-CC0B9A9347EB}">
-  <dimension ref="B2:K228"/>
+  <dimension ref="B2:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1352,7 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
@@ -1239,345 +1371,390 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>283</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>281</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="L5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="L6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>223</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
       </c>
       <c r="J12" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K16" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1585,25 +1762,28 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -1611,259 +1791,289 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>243</v>
       </c>
       <c r="J18" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K18" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
+      <c r="C19" t="s">
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4">
+        <v>27</v>
+      </c>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K19" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
+      <c r="C20" t="s">
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>246</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4">
+        <v>27</v>
+      </c>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>246</v>
       </c>
       <c r="J21" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
+      <c r="C22" t="s">
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
+      <c r="C23" t="s">
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
+      <c r="C24" t="s">
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
+      <c r="C25" t="s">
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
+      <c r="C26" t="s">
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1871,25 +2081,28 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -1897,25 +2110,28 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -1923,25 +2139,28 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -1949,25 +2168,28 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="4">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -1975,25 +2197,28 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="4">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -2001,25 +2226,28 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4">
+        <v>27</v>
+      </c>
+      <c r="E33" s="3">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -2027,25 +2255,28 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="4">
+        <v>218</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>245</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K34" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -2053,25 +2284,28 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="4">
+        <v>218</v>
+      </c>
+      <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K35" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -2079,25 +2313,28 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="4">
+        <v>218</v>
+      </c>
+      <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -2105,25 +2342,28 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="4">
+        <v>218</v>
+      </c>
+      <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>245</v>
       </c>
       <c r="J37" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -2131,25 +2371,28 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4">
+        <v>218</v>
+      </c>
+      <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>245</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K38" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -2157,25 +2400,28 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="4">
+        <v>218</v>
+      </c>
+      <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>245</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K39" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -2183,25 +2429,28 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="4">
+        <v>218</v>
+      </c>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>245</v>
       </c>
       <c r="J40" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K40" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -2209,25 +2458,28 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="4">
+        <v>218</v>
+      </c>
+      <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>245</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
@@ -2235,25 +2487,28 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="4">
+        <v>218</v>
+      </c>
+      <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>245</v>
       </c>
       <c r="J42" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K42" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -2261,25 +2516,28 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="4">
+        <v>218</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>245</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K43" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
@@ -2287,25 +2545,28 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="4">
+        <v>218</v>
+      </c>
+      <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>245</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
@@ -2313,25 +2574,28 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="4">
+        <v>218</v>
+      </c>
+      <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>245</v>
       </c>
       <c r="J45" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
@@ -2339,25 +2603,28 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="4">
+        <v>217</v>
+      </c>
+      <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>247</v>
       </c>
       <c r="J46" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K46" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
@@ -2365,25 +2632,28 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" s="4">
+        <v>217</v>
+      </c>
+      <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>247</v>
       </c>
       <c r="J47" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K47" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -2391,25 +2661,28 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="4">
+        <v>217</v>
+      </c>
+      <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>247</v>
       </c>
       <c r="J48" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K48" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -2417,25 +2690,28 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" s="4">
+        <v>217</v>
+      </c>
+      <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>247</v>
       </c>
       <c r="J49" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K49" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -2443,25 +2719,28 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" s="4">
+        <v>217</v>
+      </c>
+      <c r="E50" s="3">
         <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>247</v>
       </c>
       <c r="J50" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K50" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -2469,25 +2748,28 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" s="4">
+        <v>217</v>
+      </c>
+      <c r="E51" s="3">
         <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>247</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K51" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
@@ -2495,25 +2777,28 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="4">
+        <v>217</v>
+      </c>
+      <c r="E52" s="3">
         <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>247</v>
       </c>
       <c r="J52" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K52" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
@@ -2521,25 +2806,28 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" s="4">
+        <v>217</v>
+      </c>
+      <c r="E53" s="3">
         <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>247</v>
       </c>
       <c r="J53" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K53" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
@@ -2547,25 +2835,28 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="4">
+        <v>217</v>
+      </c>
+      <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>247</v>
       </c>
       <c r="J54" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K54" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
@@ -2573,25 +2864,28 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="4">
+        <v>217</v>
+      </c>
+      <c r="E55" s="3">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>247</v>
       </c>
       <c r="J55" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K55" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
@@ -2599,25 +2893,28 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
-      </c>
-      <c r="E56" s="4">
+        <v>217</v>
+      </c>
+      <c r="E56" s="3">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>247</v>
       </c>
       <c r="J56" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K56" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
@@ -2625,25 +2922,28 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="4">
+        <v>217</v>
+      </c>
+      <c r="E57" s="3">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>247</v>
       </c>
       <c r="J57" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K57" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
@@ -2651,25 +2951,28 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="4">
+        <v>217</v>
+      </c>
+      <c r="E58" s="3">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>247</v>
       </c>
       <c r="J58" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K58" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
@@ -2677,25 +2980,28 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
-      </c>
-      <c r="E59" s="4">
+        <v>217</v>
+      </c>
+      <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>247</v>
       </c>
       <c r="J59" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K59" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
@@ -2703,25 +3009,28 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="4">
+        <v>217</v>
+      </c>
+      <c r="E60" s="3">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>247</v>
       </c>
       <c r="J60" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K60" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
@@ -2729,25 +3038,28 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="4">
+        <v>217</v>
+      </c>
+      <c r="E61" s="3">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>247</v>
       </c>
       <c r="J61" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
@@ -2755,25 +3067,28 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
-      </c>
-      <c r="E62" s="4">
+        <v>217</v>
+      </c>
+      <c r="E62" s="3">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>247</v>
       </c>
       <c r="J62" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K62" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
@@ -2781,25 +3096,28 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
-      </c>
-      <c r="E63" s="4">
+        <v>217</v>
+      </c>
+      <c r="E63" s="3">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K63" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
@@ -2807,25 +3125,28 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E64" s="4">
+        <v>217</v>
+      </c>
+      <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K64" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
@@ -2833,25 +3154,28 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" s="4">
+        <v>217</v>
+      </c>
+      <c r="E65" s="3">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>247</v>
       </c>
       <c r="J65" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K65" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
@@ -2859,25 +3183,28 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
-      </c>
-      <c r="E66" s="4">
+        <v>217</v>
+      </c>
+      <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>247</v>
       </c>
       <c r="J66" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K66" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
@@ -2885,25 +3212,28 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
-      </c>
-      <c r="E67" s="4">
+        <v>217</v>
+      </c>
+      <c r="E67" s="3">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>247</v>
       </c>
       <c r="J67" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K67" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
@@ -2911,25 +3241,28 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
-      </c>
-      <c r="E68" s="4">
+        <v>217</v>
+      </c>
+      <c r="E68" s="3">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>247</v>
       </c>
       <c r="J68" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K68" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
@@ -2937,25 +3270,28 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="4">
+        <v>217</v>
+      </c>
+      <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>247</v>
       </c>
       <c r="J69" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K69" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
@@ -2963,25 +3299,28 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="4">
+        <v>217</v>
+      </c>
+      <c r="E70" s="3">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>247</v>
       </c>
       <c r="J70" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K70" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
@@ -2989,25 +3328,28 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="4">
+        <v>217</v>
+      </c>
+      <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>247</v>
       </c>
       <c r="J71" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K71" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -3015,25 +3357,28 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
-      </c>
-      <c r="E72" s="4">
+        <v>217</v>
+      </c>
+      <c r="E72" s="3">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>247</v>
       </c>
       <c r="J72" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K72" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
@@ -3044,22 +3389,25 @@
         <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="4">
+        <v>217</v>
+      </c>
+      <c r="E73" s="3">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>247</v>
       </c>
       <c r="J73" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
@@ -3067,25 +3415,28 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>217</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
         <v>84</v>
       </c>
-      <c r="D74" t="s">
-        <v>249</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>83</v>
-      </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>247</v>
       </c>
       <c r="J74" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K74" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
@@ -3096,22 +3447,25 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" s="4">
+        <v>217</v>
+      </c>
+      <c r="E75" s="3">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>247</v>
       </c>
       <c r="J75" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K75" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
@@ -3122,22 +3476,25 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" s="4">
+        <v>217</v>
+      </c>
+      <c r="E76" s="3">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>247</v>
       </c>
       <c r="J76" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K76" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
@@ -3148,22 +3505,25 @@
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
-      </c>
-      <c r="E77" s="4">
+        <v>217</v>
+      </c>
+      <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>247</v>
       </c>
       <c r="J77" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
@@ -3171,25 +3531,28 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
-      </c>
-      <c r="E78" s="4">
+        <v>217</v>
+      </c>
+      <c r="E78" s="3">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>247</v>
       </c>
       <c r="J78" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K78" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
@@ -3200,22 +3563,25 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="4">
+        <v>217</v>
+      </c>
+      <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>247</v>
       </c>
       <c r="J79" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K79" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -3226,22 +3592,25 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" s="4">
+        <v>217</v>
+      </c>
+      <c r="E80" s="3">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>247</v>
       </c>
       <c r="J80" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K80" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
@@ -3252,22 +3621,25 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
-      </c>
-      <c r="E81" s="4">
+        <v>217</v>
+      </c>
+      <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>247</v>
       </c>
       <c r="J81" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K81" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
@@ -3275,25 +3647,28 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
         <v>92</v>
       </c>
-      <c r="D82" t="s">
-        <v>249</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>88</v>
-      </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>247</v>
       </c>
       <c r="J82" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
@@ -3301,25 +3676,28 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
-      </c>
-      <c r="E83" s="4">
+        <v>217</v>
+      </c>
+      <c r="E83" s="3">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>247</v>
       </c>
       <c r="J83" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K83" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
@@ -3327,25 +3705,28 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
-      </c>
-      <c r="E84" s="4">
+        <v>217</v>
+      </c>
+      <c r="E84" s="3">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>247</v>
       </c>
       <c r="J84" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K84" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
@@ -3353,25 +3734,28 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
-      </c>
-      <c r="E85" s="4">
+        <v>217</v>
+      </c>
+      <c r="E85" s="3">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>247</v>
       </c>
       <c r="J85" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K85" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
@@ -3382,22 +3766,25 @@
         <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
-      </c>
-      <c r="E86" s="4">
+        <v>217</v>
+      </c>
+      <c r="E86" s="3">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>247</v>
       </c>
       <c r="J86" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K86" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
@@ -3408,22 +3795,25 @@
         <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
-      </c>
-      <c r="E87" s="4">
+        <v>217</v>
+      </c>
+      <c r="E87" s="3">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>247</v>
       </c>
       <c r="J87" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K87" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
@@ -3434,22 +3824,25 @@
         <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
-      </c>
-      <c r="E88" s="4">
+        <v>217</v>
+      </c>
+      <c r="E88" s="3">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>247</v>
       </c>
       <c r="J88" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K88" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
@@ -3457,25 +3850,28 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
         <v>100</v>
       </c>
-      <c r="D89" t="s">
-        <v>249</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>96</v>
-      </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>247</v>
       </c>
       <c r="J89" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
@@ -3483,25 +3879,28 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
-      </c>
-      <c r="E90" s="4">
+        <v>217</v>
+      </c>
+      <c r="E90" s="3">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>247</v>
       </c>
       <c r="J90" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K90" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
@@ -3509,25 +3908,28 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
-      </c>
-      <c r="E91" s="4">
+        <v>217</v>
+      </c>
+      <c r="E91" s="3">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>247</v>
       </c>
       <c r="J91" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K91" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
@@ -3535,25 +3937,28 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
-      </c>
-      <c r="E92" s="4">
+        <v>217</v>
+      </c>
+      <c r="E92" s="3">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>247</v>
       </c>
       <c r="J92" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K92" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
@@ -3564,22 +3969,25 @@
         <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
-      </c>
-      <c r="E93" s="4">
+        <v>217</v>
+      </c>
+      <c r="E93" s="3">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>247</v>
       </c>
       <c r="J93" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K93" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
@@ -3590,22 +3998,25 @@
         <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
-      </c>
-      <c r="E94" s="4">
+        <v>217</v>
+      </c>
+      <c r="E94" s="3">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>247</v>
       </c>
       <c r="J94" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K94" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
@@ -3616,22 +4027,25 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
-      </c>
-      <c r="E95" s="4">
+        <v>217</v>
+      </c>
+      <c r="E95" s="3">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>248</v>
       </c>
       <c r="J95" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K95" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
@@ -3639,25 +4053,28 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
         <v>108</v>
       </c>
-      <c r="D96" t="s">
-        <v>249</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>104</v>
-      </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>248</v>
       </c>
       <c r="J96" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K96" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
@@ -3665,25 +4082,28 @@
         <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
-      </c>
-      <c r="E97" s="4">
+        <v>217</v>
+      </c>
+      <c r="E97" s="3">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>248</v>
       </c>
       <c r="J97" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K97" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
@@ -3691,25 +4111,28 @@
         <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
-      </c>
-      <c r="E98" s="4">
+        <v>217</v>
+      </c>
+      <c r="E98" s="3">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>248</v>
       </c>
       <c r="J98" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K98" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
@@ -3717,25 +4140,28 @@
         <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>249</v>
-      </c>
-      <c r="E99" s="4">
+        <v>217</v>
+      </c>
+      <c r="E99" s="3">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>248</v>
       </c>
       <c r="J99" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K99" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
@@ -3743,25 +4169,28 @@
         <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
-      </c>
-      <c r="E100" s="4">
+        <v>217</v>
+      </c>
+      <c r="E100" s="3">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>248</v>
       </c>
       <c r="J100" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K100" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
@@ -3769,25 +4198,28 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
-      </c>
-      <c r="E101" s="4">
+        <v>217</v>
+      </c>
+      <c r="E101" s="3">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>248</v>
       </c>
       <c r="J101" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K101" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
@@ -3795,25 +4227,28 @@
         <v>99</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
-      </c>
-      <c r="E102" s="4">
+        <v>217</v>
+      </c>
+      <c r="E102" s="3">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>248</v>
       </c>
       <c r="J102" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K102" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
@@ -3821,25 +4256,28 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E103" s="4">
+        <v>217</v>
+      </c>
+      <c r="E103" s="3">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>248</v>
       </c>
       <c r="J103" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K103" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
@@ -3847,25 +4285,28 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>249</v>
-      </c>
-      <c r="E104" s="4">
+        <v>217</v>
+      </c>
+      <c r="E104" s="3">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>248</v>
       </c>
       <c r="J104" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K104" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.2">
@@ -3873,25 +4314,28 @@
         <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
-      </c>
-      <c r="E105" s="4">
+        <v>217</v>
+      </c>
+      <c r="E105" s="3">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>248</v>
       </c>
       <c r="J105" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K105" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
@@ -3899,25 +4343,28 @@
         <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>249</v>
-      </c>
-      <c r="E106" s="4">
+        <v>217</v>
+      </c>
+      <c r="E106" s="3">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>248</v>
       </c>
       <c r="J106" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K106" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
@@ -3925,25 +4372,28 @@
         <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
-      </c>
-      <c r="E107" s="4">
+        <v>217</v>
+      </c>
+      <c r="E107" s="3">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>248</v>
       </c>
       <c r="J107" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K107" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
@@ -3954,22 +4404,25 @@
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>249</v>
-      </c>
-      <c r="E108" s="4">
+        <v>217</v>
+      </c>
+      <c r="E108" s="3">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>248</v>
       </c>
       <c r="J108" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K108" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
@@ -3977,25 +4430,28 @@
         <v>106</v>
       </c>
       <c r="C109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>122</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
         <v>249</v>
       </c>
-      <c r="E109" s="4">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
       <c r="J109" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K109" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
@@ -4006,22 +4462,25 @@
         <v>123</v>
       </c>
       <c r="D110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>122</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
         <v>249</v>
       </c>
-      <c r="E110" s="4">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>120</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
       <c r="J110" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K110" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
@@ -4029,25 +4488,28 @@
         <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D111" t="s">
+        <v>217</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>122</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
         <v>249</v>
       </c>
-      <c r="E111" s="4">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
       <c r="J111" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K111" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
@@ -4055,25 +4517,28 @@
         <v>109</v>
       </c>
       <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>125</v>
       </c>
-      <c r="D112" t="s">
-        <v>249</v>
-      </c>
-      <c r="E112" s="4">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>120</v>
-      </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>266</v>
       </c>
       <c r="J112" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K112" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
@@ -4084,22 +4549,25 @@
         <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
-      </c>
-      <c r="E113" s="4">
+        <v>217</v>
+      </c>
+      <c r="E113" s="3">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>260</v>
       </c>
       <c r="J113" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K113" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
@@ -4110,22 +4578,25 @@
         <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>249</v>
-      </c>
-      <c r="E114" s="4">
+        <v>217</v>
+      </c>
+      <c r="E114" s="3">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>260</v>
       </c>
       <c r="J114" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K114" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
@@ -4133,25 +4604,28 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D115" t="s">
-        <v>249</v>
-      </c>
-      <c r="E115" s="4">
+        <v>217</v>
+      </c>
+      <c r="E115" s="3">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>260</v>
       </c>
       <c r="J115" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K115" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
@@ -4159,25 +4633,28 @@
         <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" s="4">
+        <v>217</v>
+      </c>
+      <c r="E116" s="3">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>260</v>
       </c>
       <c r="J116" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K116" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
@@ -4185,25 +4662,28 @@
         <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="4">
+        <v>217</v>
+      </c>
+      <c r="E117" s="3">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>260</v>
       </c>
       <c r="J117" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K117" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
@@ -4211,25 +4691,28 @@
         <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
-      </c>
-      <c r="E118" s="4">
+        <v>217</v>
+      </c>
+      <c r="E118" s="3">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>260</v>
       </c>
       <c r="J118" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K118" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
@@ -4237,25 +4720,28 @@
         <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>249</v>
-      </c>
-      <c r="E119" s="4">
+        <v>216</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
+        <v>266</v>
       </c>
       <c r="J119" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K119" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
@@ -4263,25 +4749,28 @@
         <v>117</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
-      </c>
-      <c r="E120" s="4">
+        <v>216</v>
+      </c>
+      <c r="E120" s="3">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
+        <v>279</v>
       </c>
       <c r="J120" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K120" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
@@ -4289,25 +4778,28 @@
         <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
-      </c>
-      <c r="E121" s="4">
+        <v>216</v>
+      </c>
+      <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>279</v>
       </c>
       <c r="J121" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K121" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
@@ -4315,25 +4807,28 @@
         <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
-      </c>
-      <c r="E122" s="4">
+        <v>216</v>
+      </c>
+      <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>279</v>
       </c>
       <c r="J122" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K122" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
@@ -4341,25 +4836,28 @@
         <v>120</v>
       </c>
       <c r="C123" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
         <v>130</v>
       </c>
-      <c r="D123" t="s">
-        <v>249</v>
-      </c>
-      <c r="E123" s="4">
-        <v>1</v>
-      </c>
-      <c r="F123" t="s">
-        <v>135</v>
-      </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>279</v>
       </c>
       <c r="J123" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K123" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
@@ -4367,25 +4865,28 @@
         <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
-      </c>
-      <c r="E124" s="4">
+        <v>168</v>
+      </c>
+      <c r="E124" s="3">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H124" t="s">
+        <v>267</v>
       </c>
       <c r="J124" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K124" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
@@ -4393,25 +4894,28 @@
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
-      </c>
-      <c r="E125" s="4">
+        <v>168</v>
+      </c>
+      <c r="E125" s="3">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H125" t="s">
+        <v>268</v>
       </c>
       <c r="J125" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K125" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
@@ -4419,25 +4923,28 @@
         <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E126" s="4">
+        <v>168</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H126" t="s">
+        <v>273</v>
       </c>
       <c r="J126" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K126" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
@@ -4445,25 +4952,28 @@
         <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
-      </c>
-      <c r="E127" s="4">
+        <v>168</v>
+      </c>
+      <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H127" t="s">
+        <v>269</v>
       </c>
       <c r="J127" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K127" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
@@ -4471,25 +4981,28 @@
         <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D128" t="s">
-        <v>249</v>
-      </c>
-      <c r="E128" s="4">
+        <v>168</v>
+      </c>
+      <c r="E128" s="3">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H128" t="s">
+        <v>270</v>
       </c>
       <c r="J128" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K128" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
@@ -4497,25 +5010,28 @@
         <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>249</v>
-      </c>
-      <c r="E129" s="4">
+        <v>168</v>
+      </c>
+      <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H129" t="s">
+        <v>271</v>
       </c>
       <c r="J129" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K129" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
@@ -4523,25 +5039,28 @@
         <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>249</v>
-      </c>
-      <c r="E130" s="4">
+        <v>168</v>
+      </c>
+      <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H130" t="s">
+        <v>272</v>
       </c>
       <c r="J130" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K130" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.2">
@@ -4549,25 +5068,28 @@
         <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="D131" t="s">
-        <v>248</v>
-      </c>
-      <c r="E131" s="4">
+        <v>9</v>
+      </c>
+      <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H131" t="s">
+        <v>275</v>
       </c>
       <c r="J131" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K131" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
@@ -4575,25 +5097,28 @@
         <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D132" t="s">
-        <v>248</v>
-      </c>
-      <c r="E132" s="4">
+        <v>217</v>
+      </c>
+      <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H132" t="s">
+        <v>280</v>
       </c>
       <c r="J132" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K132" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
@@ -4601,25 +5126,28 @@
         <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
-      </c>
-      <c r="E133" s="4">
+        <v>217</v>
+      </c>
+      <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H133" t="s">
+        <v>280</v>
       </c>
       <c r="J133" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K133" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
@@ -4627,25 +5155,28 @@
         <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D134" t="s">
-        <v>248</v>
-      </c>
-      <c r="E134" s="4">
+        <v>217</v>
+      </c>
+      <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H134" t="s">
+        <v>280</v>
       </c>
       <c r="J134" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K134" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.2">
@@ -4653,25 +5184,28 @@
         <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="D135" t="s">
-        <v>248</v>
-      </c>
-      <c r="E135" s="4">
+        <v>217</v>
+      </c>
+      <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H135" t="s">
+        <v>280</v>
       </c>
       <c r="J135" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K135" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.2">
@@ -4679,25 +5213,28 @@
         <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
-      </c>
-      <c r="E136" s="4">
+        <v>217</v>
+      </c>
+      <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H136" t="s">
+        <v>276</v>
       </c>
       <c r="J136" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K136" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.2">
@@ -4705,25 +5242,28 @@
         <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="D137" t="s">
-        <v>246</v>
-      </c>
-      <c r="E137" s="4">
+        <v>217</v>
+      </c>
+      <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H137" t="s">
+        <v>276</v>
       </c>
       <c r="J137" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K137" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.2">
@@ -4731,25 +5271,28 @@
         <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D138" t="s">
-        <v>246</v>
-      </c>
-      <c r="E138" s="4">
+        <v>217</v>
+      </c>
+      <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H138" t="s">
+        <v>276</v>
       </c>
       <c r="J138" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K138" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.2">
@@ -4757,25 +5300,28 @@
         <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
-      </c>
-      <c r="E139" s="4">
+        <v>217</v>
+      </c>
+      <c r="E139" s="3">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H139" t="s">
+        <v>276</v>
       </c>
       <c r="J139" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K139" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
@@ -4783,25 +5329,28 @@
         <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
-      </c>
-      <c r="E140" s="4">
+        <v>217</v>
+      </c>
+      <c r="E140" s="3">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H140" t="s">
+        <v>276</v>
       </c>
       <c r="J140" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K140" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.2">
@@ -4809,25 +5358,28 @@
         <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>246</v>
-      </c>
-      <c r="E141" s="4">
+        <v>217</v>
+      </c>
+      <c r="E141" s="3">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H141" t="s">
+        <v>276</v>
       </c>
       <c r="J141" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K141" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.2">
@@ -4835,25 +5387,28 @@
         <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D142" t="s">
-        <v>246</v>
-      </c>
-      <c r="E142" s="4">
+        <v>217</v>
+      </c>
+      <c r="E142" s="3">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H142" t="s">
+        <v>276</v>
       </c>
       <c r="J142" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K142" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.2">
@@ -4861,51 +5416,57 @@
         <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D143" t="s">
-        <v>246</v>
-      </c>
-      <c r="E143" s="4">
+        <v>217</v>
+      </c>
+      <c r="E143" s="3">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H143" t="s">
+        <v>276</v>
       </c>
       <c r="J143" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K143" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>141</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>156</v>
+      <c r="C144" t="s">
+        <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
-      </c>
-      <c r="E144" s="4">
+        <v>217</v>
+      </c>
+      <c r="E144" s="3">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="H144" t="s">
+        <v>276</v>
       </c>
       <c r="J144" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K144" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.2">
@@ -4913,25 +5474,28 @@
         <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D145" t="s">
-        <v>246</v>
-      </c>
-      <c r="E145" s="4">
+        <v>214</v>
+      </c>
+      <c r="E145" s="3">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>276</v>
       </c>
       <c r="J145" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K145" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
@@ -4939,25 +5503,28 @@
         <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D146" t="s">
-        <v>246</v>
-      </c>
-      <c r="E146" s="4">
+        <v>214</v>
+      </c>
+      <c r="E146" s="3">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>261</v>
       </c>
       <c r="J146" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K146" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
@@ -4965,25 +5532,28 @@
         <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
-      </c>
-      <c r="E147" s="4">
+        <v>214</v>
+      </c>
+      <c r="E147" s="3">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>261</v>
       </c>
       <c r="J147" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K147" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
@@ -4991,25 +5561,28 @@
         <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
-      </c>
-      <c r="E148" s="4">
+        <v>214</v>
+      </c>
+      <c r="E148" s="3">
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>261</v>
       </c>
       <c r="J148" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K148" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
@@ -5017,25 +5590,28 @@
         <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s">
-        <v>247</v>
-      </c>
-      <c r="E149" s="4">
+        <v>214</v>
+      </c>
+      <c r="E149" s="3">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>261</v>
       </c>
       <c r="J149" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K149" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
@@ -5043,25 +5619,28 @@
         <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
-      </c>
-      <c r="E150" s="4">
+        <v>214</v>
+      </c>
+      <c r="E150" s="3">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H150" t="s">
+        <v>261</v>
       </c>
       <c r="J150" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K150" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.2">
@@ -5069,25 +5648,28 @@
         <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>247</v>
-      </c>
-      <c r="E151" s="4">
+        <v>214</v>
+      </c>
+      <c r="E151" s="3">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>261</v>
       </c>
       <c r="J151" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K151" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.2">
@@ -5095,51 +5677,57 @@
         <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
-        <v>247</v>
-      </c>
-      <c r="E152" s="4">
+        <v>214</v>
+      </c>
+      <c r="E152" s="3">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>261</v>
       </c>
       <c r="J152" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K152" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>150</v>
       </c>
-      <c r="C153" t="s">
-        <v>165</v>
+      <c r="C153" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D153" t="s">
-        <v>247</v>
-      </c>
-      <c r="E153" s="4">
+        <v>214</v>
+      </c>
+      <c r="E153" s="3">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>261</v>
       </c>
       <c r="J153" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K153" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.2">
@@ -5147,25 +5735,28 @@
         <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
-        <v>247</v>
-      </c>
-      <c r="E154" s="4">
+        <v>214</v>
+      </c>
+      <c r="E154" s="3">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H154" t="s">
+        <v>261</v>
       </c>
       <c r="J154" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K154" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.2">
@@ -5173,25 +5764,28 @@
         <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
-      </c>
-      <c r="E155" s="4">
+        <v>214</v>
+      </c>
+      <c r="E155" s="3">
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>261</v>
       </c>
       <c r="J155" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K155" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
@@ -5199,25 +5793,28 @@
         <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s">
-        <v>167</v>
-      </c>
-      <c r="E156" s="4">
+        <v>214</v>
+      </c>
+      <c r="E156" s="3">
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>261</v>
       </c>
       <c r="J156" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K156" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.2">
@@ -5225,25 +5822,28 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>167</v>
-      </c>
-      <c r="E157" s="4">
+        <v>214</v>
+      </c>
+      <c r="E157" s="3">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>261</v>
       </c>
       <c r="J157" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K157" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
@@ -5251,25 +5851,28 @@
         <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="D158" t="s">
-        <v>167</v>
-      </c>
-      <c r="E158" s="4">
+        <v>215</v>
+      </c>
+      <c r="E158" s="3">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
+        <v>266</v>
       </c>
       <c r="J158" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K158" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.2">
@@ -5277,25 +5880,28 @@
         <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s">
-        <v>167</v>
-      </c>
-      <c r="E159" s="4">
+        <v>215</v>
+      </c>
+      <c r="E159" s="3">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>261</v>
       </c>
       <c r="J159" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K159" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.2">
@@ -5303,25 +5909,28 @@
         <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
-      </c>
-      <c r="E160" s="4">
+        <v>215</v>
+      </c>
+      <c r="E160" s="3">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>261</v>
       </c>
       <c r="J160" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K160" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
@@ -5329,25 +5938,28 @@
         <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
-      </c>
-      <c r="E161" s="4">
+        <v>215</v>
+      </c>
+      <c r="E161" s="3">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>261</v>
       </c>
       <c r="J161" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K161" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
@@ -5355,25 +5967,28 @@
         <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D162" t="s">
-        <v>167</v>
-      </c>
-      <c r="E162" s="4">
+        <v>215</v>
+      </c>
+      <c r="E162" s="3">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>261</v>
       </c>
       <c r="J162" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K162" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
@@ -5381,25 +5996,28 @@
         <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D163" t="s">
-        <v>249</v>
-      </c>
-      <c r="E163" s="4">
+        <v>215</v>
+      </c>
+      <c r="E163" s="3">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G163" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>261</v>
       </c>
       <c r="J163" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K163" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
@@ -5407,25 +6025,28 @@
         <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="D164" t="s">
-        <v>249</v>
-      </c>
-      <c r="E164" s="4">
+        <v>154</v>
+      </c>
+      <c r="E164" s="3">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G164" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H164" t="s">
+        <v>266</v>
       </c>
       <c r="J164" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K164" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
@@ -5433,25 +6054,28 @@
         <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D165" t="s">
-        <v>249</v>
-      </c>
-      <c r="E165" s="4">
+        <v>154</v>
+      </c>
+      <c r="E165" s="3">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G165" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>261</v>
       </c>
       <c r="J165" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K165" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
@@ -5459,25 +6083,28 @@
         <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D166" t="s">
-        <v>249</v>
-      </c>
-      <c r="E166" s="4">
+        <v>154</v>
+      </c>
+      <c r="E166" s="3">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G166" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>261</v>
       </c>
       <c r="J166" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K166" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.2">
@@ -5485,25 +6112,28 @@
         <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D167" t="s">
-        <v>249</v>
-      </c>
-      <c r="E167" s="4">
+        <v>154</v>
+      </c>
+      <c r="E167" s="3">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G167" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>261</v>
       </c>
       <c r="J167" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K167" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
@@ -5511,25 +6141,28 @@
         <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D168" t="s">
-        <v>249</v>
-      </c>
-      <c r="E168" s="4">
+        <v>154</v>
+      </c>
+      <c r="E168" s="3">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G168" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>261</v>
       </c>
       <c r="J168" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K168" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
@@ -5537,25 +6170,28 @@
         <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>249</v>
-      </c>
-      <c r="E169" s="4">
+        <v>154</v>
+      </c>
+      <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G169" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>261</v>
       </c>
       <c r="J169" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K169" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
@@ -5563,25 +6199,28 @@
         <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D170" t="s">
-        <v>249</v>
-      </c>
-      <c r="E170" s="4">
+        <v>154</v>
+      </c>
+      <c r="E170" s="3">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G170" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>261</v>
       </c>
       <c r="J170" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K170" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
@@ -5589,25 +6228,28 @@
         <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D171" t="s">
-        <v>250</v>
-      </c>
-      <c r="E171" s="4">
+        <v>154</v>
+      </c>
+      <c r="E171" s="3">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G171" t="s">
-        <v>177</v>
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>261</v>
       </c>
       <c r="J171" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K171" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
@@ -5615,25 +6257,28 @@
         <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D172" t="s">
-        <v>250</v>
-      </c>
-      <c r="E172" s="4">
+        <v>180</v>
+      </c>
+      <c r="E172" s="3">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G172" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H172" t="s">
+        <v>278</v>
       </c>
       <c r="J172" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K172" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
@@ -5641,25 +6286,28 @@
         <v>170</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
-      </c>
-      <c r="E173" s="4">
+        <v>180</v>
+      </c>
+      <c r="E173" s="3">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G173" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H173" t="s">
+        <v>278</v>
       </c>
       <c r="J173" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K173" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
@@ -5667,25 +6315,28 @@
         <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D174" t="s">
-        <v>189</v>
-      </c>
-      <c r="E174" s="4">
+        <v>180</v>
+      </c>
+      <c r="E174" s="3">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G174" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H174" t="s">
+        <v>278</v>
       </c>
       <c r="J174" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K174" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
@@ -5693,25 +6344,28 @@
         <v>172</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D175" t="s">
-        <v>189</v>
-      </c>
-      <c r="E175" s="4">
+        <v>180</v>
+      </c>
+      <c r="E175" s="3">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G175" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H175" t="s">
+        <v>278</v>
       </c>
       <c r="J175" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K175" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
@@ -5719,25 +6373,28 @@
         <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
-        <v>189</v>
-      </c>
-      <c r="E176" s="4">
+        <v>180</v>
+      </c>
+      <c r="E176" s="3">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G176" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H176" t="s">
+        <v>278</v>
       </c>
       <c r="J176" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K176" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
@@ -5745,25 +6402,28 @@
         <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
-      </c>
-      <c r="E177" s="4">
+        <v>180</v>
+      </c>
+      <c r="E177" s="3">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G177" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H177" t="s">
+        <v>278</v>
       </c>
       <c r="J177" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K177" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
@@ -5771,25 +6431,28 @@
         <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D178" t="s">
-        <v>189</v>
-      </c>
-      <c r="E178" s="4">
+        <v>180</v>
+      </c>
+      <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G178" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H178" t="s">
+        <v>278</v>
       </c>
       <c r="J178" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K178" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
@@ -5797,25 +6460,28 @@
         <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="D179" t="s">
+        <v>188</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
         <v>189</v>
       </c>
-      <c r="E179" s="4">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>195</v>
-      </c>
       <c r="G179" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H179" t="s">
+        <v>277</v>
       </c>
       <c r="J179" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K179" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
@@ -5823,25 +6489,28 @@
         <v>177</v>
       </c>
       <c r="C180" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="D180" t="s">
+        <v>188</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
         <v>189</v>
       </c>
-      <c r="E180" s="4">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>195</v>
-      </c>
       <c r="G180" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H180" t="s">
+        <v>277</v>
       </c>
       <c r="J180" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K180" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
@@ -5849,25 +6518,28 @@
         <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="D181" t="s">
-        <v>249</v>
-      </c>
-      <c r="E181" s="4">
+        <v>188</v>
+      </c>
+      <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G181" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="H181" t="s">
+        <v>277</v>
       </c>
       <c r="J181" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K181" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
@@ -5875,735 +6547,237 @@
         <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D182" t="s">
-        <v>249</v>
-      </c>
-      <c r="E182" s="4">
+        <v>219</v>
+      </c>
+      <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="F182" t="s">
+        <v>191</v>
+      </c>
+      <c r="G182" t="s">
+        <v>163</v>
+      </c>
+      <c r="J182" t="s">
+        <v>220</v>
+      </c>
+      <c r="K182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
         <v>198</v>
       </c>
-      <c r="G182" t="s">
-        <v>177</v>
-      </c>
-      <c r="J182" t="s">
-        <v>252</v>
-      </c>
-      <c r="K182" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B183">
-        <v>180</v>
-      </c>
-      <c r="C183" t="s">
-        <v>179</v>
-      </c>
-      <c r="D183" t="s">
-        <v>249</v>
-      </c>
-      <c r="E183" s="4">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
-        <v>198</v>
-      </c>
-      <c r="G183" t="s">
-        <v>177</v>
-      </c>
-      <c r="J183" t="s">
-        <v>252</v>
-      </c>
-      <c r="K183" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B184">
-        <v>181</v>
-      </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
         <v>199</v>
       </c>
-      <c r="D184" t="s">
-        <v>249</v>
-      </c>
-      <c r="E184" s="4">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
         <v>200</v>
       </c>
-      <c r="G184" t="s">
-        <v>177</v>
-      </c>
-      <c r="J184" t="s">
-        <v>252</v>
-      </c>
-      <c r="K184" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B185">
-        <v>182</v>
-      </c>
-      <c r="C185" t="s">
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
         <v>201</v>
       </c>
-      <c r="D185" t="s">
-        <v>249</v>
-      </c>
-      <c r="E185" s="4">
-        <v>1</v>
-      </c>
-      <c r="F185" t="s">
-        <v>200</v>
-      </c>
-      <c r="G185" t="s">
-        <v>177</v>
-      </c>
-      <c r="J185" t="s">
-        <v>252</v>
-      </c>
-      <c r="K185" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B186">
-        <v>183</v>
-      </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
         <v>202</v>
       </c>
-      <c r="D186" t="s">
-        <v>249</v>
-      </c>
-      <c r="E186" s="4">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
-        <v>200</v>
-      </c>
-      <c r="G186" t="s">
-        <v>177</v>
-      </c>
-      <c r="J186" t="s">
-        <v>252</v>
-      </c>
-      <c r="K186" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B187">
-        <v>184</v>
-      </c>
-      <c r="C187" t="s">
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>203</v>
       </c>
-      <c r="D187" t="s">
-        <v>249</v>
-      </c>
-      <c r="E187" s="4">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>200</v>
-      </c>
-      <c r="G187" t="s">
-        <v>177</v>
-      </c>
-      <c r="J187" t="s">
-        <v>252</v>
-      </c>
-      <c r="K187" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B188">
-        <v>185</v>
-      </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
         <v>204</v>
       </c>
-      <c r="D188" t="s">
-        <v>249</v>
-      </c>
-      <c r="E188" s="4">
-        <v>1</v>
-      </c>
-      <c r="F188" t="s">
-        <v>200</v>
-      </c>
-      <c r="G188" t="s">
-        <v>177</v>
-      </c>
-      <c r="J188" t="s">
-        <v>252</v>
-      </c>
-      <c r="K188" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B189">
-        <v>186</v>
-      </c>
-      <c r="C189" t="s">
-        <v>180</v>
-      </c>
-      <c r="D189" t="s">
-        <v>249</v>
-      </c>
-      <c r="E189" s="4">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>176</v>
-      </c>
-      <c r="G189" t="s">
-        <v>177</v>
-      </c>
-      <c r="J189" t="s">
-        <v>252</v>
-      </c>
-      <c r="K189" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B190">
-        <v>187</v>
-      </c>
-      <c r="C190" t="s">
-        <v>181</v>
-      </c>
-      <c r="D190" t="s">
-        <v>249</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>176</v>
-      </c>
-      <c r="G190" t="s">
-        <v>177</v>
-      </c>
-      <c r="J190" t="s">
-        <v>252</v>
-      </c>
-      <c r="K190" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B191">
-        <v>188</v>
-      </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
         <v>205</v>
       </c>
-      <c r="D191" t="s">
-        <v>249</v>
-      </c>
-      <c r="E191" s="4">
-        <v>1</v>
-      </c>
-      <c r="F191" t="s">
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
         <v>206</v>
       </c>
-      <c r="G191" t="s">
-        <v>177</v>
-      </c>
-      <c r="J191" t="s">
-        <v>252</v>
-      </c>
-      <c r="K191" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B192">
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
         <v>189</v>
       </c>
-      <c r="C192" t="s">
-        <v>207</v>
-      </c>
-      <c r="D192" t="s">
-        <v>249</v>
-      </c>
-      <c r="E192" s="4">
-        <v>1</v>
-      </c>
-      <c r="F192" t="s">
-        <v>206</v>
-      </c>
-      <c r="G192" t="s">
-        <v>177</v>
-      </c>
-      <c r="J192" t="s">
-        <v>252</v>
-      </c>
-      <c r="K192" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B193">
-        <v>190</v>
-      </c>
-      <c r="C193" t="s">
-        <v>203</v>
-      </c>
-      <c r="D193" t="s">
-        <v>249</v>
-      </c>
-      <c r="E193" s="4">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>206</v>
-      </c>
-      <c r="G193" t="s">
-        <v>177</v>
-      </c>
-      <c r="J193" t="s">
-        <v>252</v>
-      </c>
-      <c r="K193" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B194">
-        <v>191</v>
-      </c>
-      <c r="C194" t="s">
-        <v>204</v>
-      </c>
-      <c r="D194" t="s">
-        <v>249</v>
-      </c>
-      <c r="E194" s="4">
-        <v>1</v>
-      </c>
-      <c r="F194" t="s">
-        <v>206</v>
-      </c>
-      <c r="G194" t="s">
-        <v>177</v>
-      </c>
-      <c r="J194" t="s">
-        <v>252</v>
-      </c>
-      <c r="K194" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B195">
-        <v>192</v>
-      </c>
-      <c r="C195" t="s">
-        <v>208</v>
-      </c>
-      <c r="D195" t="s">
-        <v>209</v>
-      </c>
-      <c r="E195" s="4">
-        <v>1</v>
-      </c>
-      <c r="F195" t="s">
-        <v>210</v>
-      </c>
-      <c r="G195" t="s">
-        <v>177</v>
-      </c>
-      <c r="J195" t="s">
-        <v>252</v>
-      </c>
-      <c r="K195" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B196">
-        <v>193</v>
-      </c>
-      <c r="C196" t="s">
-        <v>211</v>
-      </c>
-      <c r="D196" t="s">
-        <v>209</v>
-      </c>
-      <c r="E196" s="4">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
-        <v>210</v>
-      </c>
-      <c r="G196" t="s">
-        <v>177</v>
-      </c>
-      <c r="J196" t="s">
-        <v>252</v>
-      </c>
-      <c r="K196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B197">
-        <v>194</v>
-      </c>
-      <c r="C197" t="s">
-        <v>212</v>
-      </c>
-      <c r="D197" t="s">
-        <v>209</v>
-      </c>
-      <c r="E197" s="4">
-        <v>1</v>
-      </c>
-      <c r="F197" t="s">
-        <v>210</v>
-      </c>
-      <c r="G197" t="s">
-        <v>177</v>
-      </c>
-      <c r="J197" t="s">
-        <v>252</v>
-      </c>
-      <c r="K197" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B198">
-        <v>195</v>
-      </c>
-      <c r="C198" t="s">
-        <v>213</v>
-      </c>
-      <c r="D198" t="s">
-        <v>209</v>
-      </c>
-      <c r="E198" s="4">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>210</v>
-      </c>
-      <c r="G198" t="s">
-        <v>177</v>
-      </c>
-      <c r="J198" t="s">
-        <v>252</v>
-      </c>
-      <c r="K198" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B199">
-        <v>196</v>
-      </c>
-      <c r="C199" t="s">
-        <v>214</v>
-      </c>
-      <c r="D199" t="s">
-        <v>209</v>
-      </c>
-      <c r="E199" s="4">
-        <v>1</v>
-      </c>
-      <c r="F199" t="s">
-        <v>210</v>
-      </c>
-      <c r="G199" t="s">
-        <v>177</v>
-      </c>
-      <c r="J199" t="s">
-        <v>252</v>
-      </c>
-      <c r="K199" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B200">
-        <v>197</v>
-      </c>
-      <c r="C200" t="s">
-        <v>215</v>
-      </c>
-      <c r="D200" t="s">
-        <v>209</v>
-      </c>
-      <c r="E200" s="4">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
-        <v>210</v>
-      </c>
-      <c r="G200" t="s">
-        <v>177</v>
-      </c>
-      <c r="J200" t="s">
-        <v>252</v>
-      </c>
-      <c r="K200" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B201">
-        <v>198</v>
-      </c>
-      <c r="C201" t="s">
-        <v>216</v>
-      </c>
-      <c r="D201" t="s">
-        <v>209</v>
-      </c>
-      <c r="E201" s="4">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
-        <v>210</v>
-      </c>
-      <c r="G201" t="s">
-        <v>177</v>
-      </c>
-      <c r="J201" t="s">
-        <v>252</v>
-      </c>
-      <c r="K201" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B202">
-        <v>199</v>
-      </c>
-      <c r="C202" t="s">
-        <v>217</v>
-      </c>
-      <c r="D202" t="s">
-        <v>218</v>
-      </c>
-      <c r="E202" s="4">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
-        <v>219</v>
-      </c>
-      <c r="G202" t="s">
-        <v>177</v>
-      </c>
-      <c r="J202" t="s">
-        <v>252</v>
-      </c>
-      <c r="K202" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B203">
-        <v>200</v>
-      </c>
-      <c r="C203" t="s">
-        <v>220</v>
-      </c>
-      <c r="D203" t="s">
-        <v>218</v>
-      </c>
-      <c r="E203" s="4">
-        <v>1</v>
-      </c>
-      <c r="F203" t="s">
-        <v>219</v>
-      </c>
-      <c r="G203" t="s">
-        <v>177</v>
-      </c>
-      <c r="J203" t="s">
-        <v>252</v>
-      </c>
-      <c r="K203" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B204">
-        <v>201</v>
-      </c>
-      <c r="C204" t="s">
-        <v>221</v>
-      </c>
-      <c r="D204" t="s">
-        <v>218</v>
-      </c>
-      <c r="E204" s="4">
-        <v>1</v>
-      </c>
-      <c r="F204" t="s">
-        <v>219</v>
-      </c>
-      <c r="G204" t="s">
-        <v>177</v>
-      </c>
-      <c r="J204" t="s">
-        <v>252</v>
-      </c>
-      <c r="K204" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B205">
-        <v>202</v>
-      </c>
-      <c r="C205" t="s">
-        <v>222</v>
-      </c>
-      <c r="D205" t="s">
-        <v>251</v>
-      </c>
-      <c r="E205" s="4">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>223</v>
-      </c>
-      <c r="G205" t="s">
-        <v>177</v>
-      </c>
-      <c r="J205" t="s">
-        <v>252</v>
-      </c>
-      <c r="K205" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
-        <v>225</v>
+      <c r="C209" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" t="s">
-        <v>226</v>
+      <c r="C210" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" t="s">
-        <v>227</v>
+      <c r="C211" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" t="s">
-        <v>228</v>
+      <c r="C212" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" t="s">
-        <v>229</v>
+      <c r="C213" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" t="s">
-        <v>230</v>
+      <c r="C214" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" t="s">
-        <v>231</v>
+      <c r="C215" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" t="s">
-        <v>232</v>
+      <c r="C216" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" t="s">
-        <v>219</v>
+      <c r="C217" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K205" xr:uid="{01F3C031-B42B-4B1B-A8F5-CC0B9A9347EB}"/>
+  <autoFilter ref="B3:K182" xr:uid="{01F3C031-B42B-4B1B-A8F5-CC0B9A9347EB}"/>
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B25992-101E-4DFE-8A35-AF35DB9427A7}">
+  <dimension ref="C1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>F3*5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>